--- a/data/trans_orig/P25C_R2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R2_2023-Edad-trans_orig.xlsx
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5649</v>
+        <v>5506</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03173691859444144</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1658002311520957</v>
+        <v>0.1616232915268639</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5890</v>
+        <v>4875</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01808015497448387</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09849227012242752</v>
+        <v>0.0815268006563903</v>
       </c>
     </row>
     <row r="8">
@@ -986,7 +986,7 @@
         <v>32988</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28420</v>
+        <v>28563</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>34069</v>
@@ -995,7 +995,7 @@
         <v>0.9682630814055585</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8341997688479043</v>
+        <v>0.8383767084731364</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         <v>58721</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>53912</v>
+        <v>54927</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>59802</v>
@@ -1016,7 +1016,7 @@
         <v>0.9819198450255161</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.901507729877572</v>
+        <v>0.9184731993436089</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5974</v>
+        <v>5681</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02305975867314252</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1212233430697957</v>
+        <v>0.1152827997309022</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4119</v>
+        <v>3111</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0117060617922018</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07289527684545784</v>
+        <v>0.05506935362129078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5807</v>
+        <v>5920</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01699551864020424</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05489903197554866</v>
+        <v>0.0559670121040243</v>
       </c>
     </row>
     <row r="11">
@@ -1182,16 +1182,16 @@
         <v>48146</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43308</v>
+        <v>43601</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>49282</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9769402413268575</v>
+        <v>0.9769402413268574</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8787766569302045</v>
+        <v>0.8847172002690975</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1203,16 +1203,16 @@
         <v>55840</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52382</v>
+        <v>53390</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>56501</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9882939382077982</v>
+        <v>0.9882939382077983</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9271047231545423</v>
+        <v>0.9449306463787083</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1224,16 +1224,16 @@
         <v>103985</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>99976</v>
+        <v>99863</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>105783</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9830044813597957</v>
+        <v>0.9830044813597958</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9451009680244513</v>
+        <v>0.9440329878959756</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1331,16 +1331,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4712</v>
+        <v>4669</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.00816597956008536</v>
+        <v>0.008165979560085359</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04155675891286782</v>
+        <v>0.04117643382628353</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1349,19 +1349,19 @@
         <v>4712</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2034</v>
+        <v>2120</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9117</v>
+        <v>9611</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05095525151204951</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02199667794906121</v>
+        <v>0.02292159571474337</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09858389787831227</v>
+        <v>0.1039228683965684</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1370,19 +1370,19 @@
         <v>5638</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2696</v>
+        <v>2567</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11082</v>
+        <v>10302</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02738756115772936</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01309388066816618</v>
+        <v>0.01246994189711835</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05382822779987469</v>
+        <v>0.05004236073460423</v>
       </c>
     </row>
     <row r="14">
@@ -1399,7 +1399,7 @@
         <v>112466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108680</v>
+        <v>108723</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>113392</v>
@@ -1408,7 +1408,7 @@
         <v>0.9918340204399145</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9584432410871324</v>
+        <v>0.9588235661737169</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1420,19 +1420,19 @@
         <v>87769</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>83364</v>
+        <v>82870</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90447</v>
+        <v>90361</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9490447484879505</v>
+        <v>0.9490447484879503</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9014161021216865</v>
+        <v>0.8960771316034325</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9780033220509388</v>
+        <v>0.9770784042852567</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>231</v>
@@ -1441,19 +1441,19 @@
         <v>200235</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>194791</v>
+        <v>195571</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>203177</v>
+        <v>203306</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9726124388422708</v>
+        <v>0.9726124388422706</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9461717722001254</v>
+        <v>0.9499576392653959</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9869061193318337</v>
+        <v>0.9875300581028816</v>
       </c>
     </row>
     <row r="15">
@@ -1545,19 +1545,19 @@
         <v>3562</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>973</v>
+        <v>922</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8980</v>
+        <v>8458</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0215761545848131</v>
+        <v>0.02157615458481309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005894366188307251</v>
+        <v>0.005586806755544364</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05439744125369704</v>
+        <v>0.05123721507152765</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1566,19 +1566,19 @@
         <v>4048</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1386</v>
+        <v>1321</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8192</v>
+        <v>8243</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04291969074259036</v>
+        <v>0.04291969074259037</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01469570520638151</v>
+        <v>0.01400360676700521</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08684419401426967</v>
+        <v>0.08738595195138289</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1587,19 +1587,19 @@
         <v>7610</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4038</v>
+        <v>3636</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13668</v>
+        <v>13854</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02933711069197386</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01556472495958739</v>
+        <v>0.01401494131985334</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05268838450778516</v>
+        <v>0.05340750484919173</v>
       </c>
     </row>
     <row r="17">
@@ -1616,19 +1616,19 @@
         <v>161520</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>156102</v>
+        <v>156624</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>164109</v>
+        <v>164160</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.978423845415187</v>
+        <v>0.9784238454151868</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9456025587463028</v>
+        <v>0.9487627849284722</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9941056338116929</v>
+        <v>0.9944131932444551</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>143</v>
@@ -1637,19 +1637,19 @@
         <v>90278</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>86134</v>
+        <v>86083</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92940</v>
+        <v>93005</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9570803092574096</v>
+        <v>0.9570803092574097</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9131558059857309</v>
+        <v>0.9126140480486172</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9853042947936185</v>
+        <v>0.9859963932329948</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>317</v>
@@ -1658,19 +1658,19 @@
         <v>251798</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>245740</v>
+        <v>245554</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>255370</v>
+        <v>255772</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.970662889308026</v>
+        <v>0.9706628893080261</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9473116154922148</v>
+        <v>0.9465924951508083</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9844352750404125</v>
+        <v>0.9859850586801466</v>
       </c>
     </row>
     <row r="18">
@@ -1762,19 +1762,19 @@
         <v>4505</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1933</v>
+        <v>2058</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8763</v>
+        <v>9560</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02625112814825814</v>
+        <v>0.02625112814825813</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01126176107988922</v>
+        <v>0.01199558278272936</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05106567233506503</v>
+        <v>0.05570750841884294</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1783,19 +1783,19 @@
         <v>3524</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1253</v>
+        <v>1277</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7204</v>
+        <v>7063</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07250965718033313</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02578125963896033</v>
+        <v>0.02628640831472483</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.148244306744951</v>
+        <v>0.1453419028442989</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -1804,19 +1804,19 @@
         <v>8029</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4478</v>
+        <v>4324</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13778</v>
+        <v>13644</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03646032710306134</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02033756928021694</v>
+        <v>0.01963442549275424</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06256885221531508</v>
+        <v>0.06196348156474084</v>
       </c>
     </row>
     <row r="20">
@@ -1833,19 +1833,19 @@
         <v>167097</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>162839</v>
+        <v>162042</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169669</v>
+        <v>169544</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9737488718517419</v>
+        <v>0.9737488718517417</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.948934327664935</v>
+        <v>0.944292491581157</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9887382389201108</v>
+        <v>0.9880044172172705</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -1854,19 +1854,19 @@
         <v>45074</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41394</v>
+        <v>41535</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47345</v>
+        <v>47321</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9274903428196669</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.851755693255049</v>
+        <v>0.8546580971557014</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9742187403610396</v>
+        <v>0.9737135916852753</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>310</v>
@@ -1875,19 +1875,19 @@
         <v>212171</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>206422</v>
+        <v>206556</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>215722</v>
+        <v>215876</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9635396728969385</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9374311477846861</v>
+        <v>0.9380365184352585</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9796624307197831</v>
+        <v>0.9803655745072456</v>
       </c>
     </row>
     <row r="21">
@@ -1979,19 +1979,19 @@
         <v>4801</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1976</v>
+        <v>1811</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9393</v>
+        <v>9435</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03731361941014104</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01536075216550849</v>
+        <v>0.01407679648790036</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07300158951799442</v>
+        <v>0.07333018042971062</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2319</v>
+        <v>3144</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02564341095531386</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1181254708607098</v>
+        <v>0.1601042777734318</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -2021,19 +2021,19 @@
         <v>5304</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2604</v>
+        <v>2310</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9823</v>
+        <v>10148</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03576845981780646</v>
+        <v>0.03576845981780647</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01755851837238901</v>
+        <v>0.01557397592667348</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06623898146883682</v>
+        <v>0.0684292086541788</v>
       </c>
     </row>
     <row r="23">
@@ -2050,19 +2050,19 @@
         <v>123861</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>119269</v>
+        <v>119227</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>126686</v>
+        <v>126851</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.962686380589859</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9269984104820055</v>
+        <v>0.9266698195702894</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9846392478344914</v>
+        <v>0.9859232035120996</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -2071,7 +2071,7 @@
         <v>19131</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17316</v>
+        <v>16491</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>19635</v>
@@ -2080,7 +2080,7 @@
         <v>0.9743565890446862</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8818745291392898</v>
+        <v>0.8398957222265678</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -2092,19 +2092,19 @@
         <v>142993</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>138474</v>
+        <v>138149</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>145693</v>
+        <v>145987</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9642315401821934</v>
+        <v>0.9642315401821936</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9337610185311633</v>
+        <v>0.9315707913458213</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9824414816276111</v>
+        <v>0.9844260240733266</v>
       </c>
     </row>
     <row r="24">
@@ -2196,19 +2196,19 @@
         <v>14930</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9113</v>
+        <v>9585</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22774</v>
+        <v>23059</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02261345044283584</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01380291081923009</v>
+        <v>0.01451726643805211</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03449457760058577</v>
+        <v>0.03492699244577681</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -2217,19 +2217,19 @@
         <v>14531</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8709</v>
+        <v>9586</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21259</v>
+        <v>21315</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03971358767478163</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02380359462623365</v>
+        <v>0.0261977729379862</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05810273188758425</v>
+        <v>0.05825536449868826</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -2238,19 +2238,19 @@
         <v>29461</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21015</v>
+        <v>21098</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39046</v>
+        <v>39090</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02871102051280562</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02048022006556542</v>
+        <v>0.02056103241253297</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03805263549532695</v>
+        <v>0.0380954741565423</v>
       </c>
     </row>
     <row r="26">
@@ -2267,19 +2267,19 @@
         <v>645289</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>637445</v>
+        <v>637160</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>651106</v>
+        <v>650634</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.977386549557164</v>
+        <v>0.9773865495571641</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9655054223994146</v>
+        <v>0.9650730075542231</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.98619708918077</v>
+        <v>0.9854827335619479</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>503</v>
@@ -2288,19 +2288,19 @@
         <v>351359</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>344631</v>
+        <v>344575</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>357181</v>
+        <v>356304</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9602864123252184</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9418972681124157</v>
+        <v>0.9417446355013115</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9761964053737662</v>
+        <v>0.9738022270620138</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1243</v>
@@ -2309,19 +2309,19 @@
         <v>996648</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>987063</v>
+        <v>987019</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1005094</v>
+        <v>1005011</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9712889794871943</v>
+        <v>0.9712889794871944</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.961947364504673</v>
+        <v>0.9619045258434575</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9795197799344348</v>
+        <v>0.9794389675874666</v>
       </c>
     </row>
     <row r="27">
